--- a/custom/excel_sheet.xlsx
+++ b/custom/excel_sheet.xlsx
@@ -437,22 +437,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>group b, group a</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>2022-01-11</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>01:20:00</t>
         </is>
@@ -469,14 +469,55 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>-615761128</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-615761128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-615761128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>annie's test</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-485430438</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/custom/excel_sheet.xlsx
+++ b/custom/excel_sheet.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,28 @@
       <c r="D5" s="0" t="inlineStr">
         <is>
           <t>01:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Volleyball</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
         </is>
       </c>
     </row>
@@ -508,12 +530,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>annie's test</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>-485430438</v>
       </c>
     </row>

--- a/custom/excel_sheet.xlsx
+++ b/custom/excel_sheet.xlsx
@@ -60,7 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -79,6 +79,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2461,7 +2464,7 @@
           <t>Do you support a football team? Which one?</t>
         </is>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2474,7 +2477,7 @@
           <t>Is it possible to support two football teams at once? How?</t>
         </is>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2487,7 +2490,7 @@
           <t>Are you good at football yourself? What position do you play?</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2500,7 +2503,7 @@
           <t>What is your earliest football memory?</t>
         </is>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2513,7 +2516,7 @@
           <t>Have you ever played a football video game? Does it come close to the real thing?</t>
         </is>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,7 +2529,7 @@
           <t>Have video assistant referees (VAR) improved the game?</t>
         </is>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2539,7 +2542,7 @@
           <t>Some people say that football is like religion. Do you agree?</t>
         </is>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2552,7 +2555,7 @@
           <t>Do footballers have a responsibility to behave well off the pitch? Why is this?</t>
         </is>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2565,7 +2568,7 @@
           <t>Why are footballers paid so much money? Are they worth it?</t>
         </is>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="10" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2578,7 +2581,7 @@
           <t>If you were the president of FIFA, what would you do to improve the game?</t>
         </is>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2591,7 +2594,7 @@
           <t>Why do men like football more than women do?</t>
         </is>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,7 +2607,7 @@
           <t>Do you watch women’s football? Will it ever be as popular as the men’s game?</t>
         </is>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3647,7 +3650,7 @@
           <t>Can you think of any big city rivalries in world Volleyball? Are they a good thing?</t>
         </is>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3660,7 +3663,7 @@
           <t>Do you consider football to be the beautiful game? Why so?</t>
         </is>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3673,7 +3676,7 @@
           <t>Why has football become so popular around the world?</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3686,7 +3689,7 @@
           <t>Will football ever go out of fashion? Why would this be?</t>
         </is>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4736,8 +4739,8 @@
           <t>Who do you think is the best basket ball player in the world right now?</t>
         </is>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>2</v>
+      <c r="C3" s="10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -4749,8 +4752,8 @@
           <t>Who is the greatest player in the history of the game?</t>
         </is>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>1</v>
+      <c r="C4" s="10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -4762,8 +4765,8 @@
           <t>Which is the best basketball team in the world at the moment?</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>3</v>
+      <c r="C5" s="10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="4"/>

--- a/custom/excel_sheet.xlsx
+++ b/custom/excel_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Schedule" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="History" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Groups" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Football" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Volleyball" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Basketball" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Schedule" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Groups" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Football" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volleyball" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Basketball" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="C3" s="10" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="C5" s="10" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="4"/>

--- a/custom/excel_sheet.xlsx
+++ b/custom/excel_sheet.xlsx
@@ -357,7 +357,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,6 +368,161 @@
     <col width="12.63" customWidth="1" style="4" min="1" max="6"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>annie's test, okokokok</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>okokokok</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>okokokok:13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="4"/>
     <row r="14" ht="15.75" customHeight="1" s="4"/>
     <row r="15" ht="15.75" customHeight="1" s="4"/>
     <row r="16" ht="15.75" customHeight="1" s="4"/>
@@ -1347,7 +1502,6 @@
     <row r="990" ht="15.75" customHeight="1" s="4"/>
     <row r="991" ht="15.75" customHeight="1" s="4"/>
     <row r="992" ht="15.75" customHeight="1" s="4"/>
-    <row r="993" ht="15.75" customHeight="1" s="4"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/custom/excel_sheet.xlsx
+++ b/custom/excel_sheet.xlsx
@@ -357,7 +357,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,160 +368,6 @@
     <col width="12.63" customWidth="1" style="4" min="1" max="6"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>annie's test, okokokok</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>okokokok</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>okokokok</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>okokokok</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>okokokok</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>okokokok</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>okokokok:13</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13:00:00</t>
-        </is>
-      </c>
-    </row>
     <row r="13" ht="15.75" customHeight="1" s="4"/>
     <row r="14" ht="15.75" customHeight="1" s="4"/>
     <row r="15" ht="15.75" customHeight="1" s="4"/>
@@ -4920,7 +4766,7 @@
         </is>
       </c>
       <c r="C5" s="10" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="4"/>

--- a/custom/excel_sheet.xlsx
+++ b/custom/excel_sheet.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,6 +373,44 @@
     <col width="12.63" customWidth="1" style="10" min="1" max="6"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>okokokok:64</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>19:57:02</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>my_questions.xlsx</t>
+        </is>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1" s="10"/>
     <row r="14" ht="15.75" customHeight="1" s="10"/>
     <row r="15" ht="15.75" customHeight="1" s="10"/>
@@ -1380,7 +1418,7 @@
         </is>
       </c>
       <c r="B1" s="7" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
